--- a/Caja_Motor.xlsx
+++ b/Caja_Motor.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Calculo Grupo D" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Calculo Grupo A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Calculo Grupo B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Calculo Grupo C" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,4 +533,343 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Contrapeso</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cabina</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tension</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Radio polea</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Torque polea</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia polea</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia caja</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia motor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vel ang polea</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nro engranes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Grupo A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C2" t="n">
+        <v>900</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11250</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78750.00000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>98437.50000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>109375</v>
+      </c>
+      <c r="J2" t="n">
+        <v>35</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Contrapeso</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cabina</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tension</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Radio polea</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Torque polea</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia polea</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia caja</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia motor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vel ang polea</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nro engranes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Grupo B</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C2" t="n">
+        <v>900</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11250</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90000.00000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>112500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>125000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Contrapeso</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cabina</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tension</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Radio polea</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Torque polea</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia polea</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia caja</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia motor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vel ang polea</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nro engranes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Grupo C</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C2" t="n">
+        <v>900</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11250</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G2" t="n">
+        <v>112500</v>
+      </c>
+      <c r="H2" t="n">
+        <v>140625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>156250</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Caja_Motor.xlsx
+++ b/Caja_Motor.xlsx
@@ -506,22 +506,22 @@
         <v>800</v>
       </c>
       <c r="D2" t="n">
-        <v>10000</v>
+        <v>7840.000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>1568</v>
       </c>
       <c r="G2" t="n">
-        <v>100000</v>
+        <v>78400.00000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>125000</v>
+        <v>98000.00000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>138888.8888888889</v>
+        <v>108888.8888888889</v>
       </c>
       <c r="J2" t="n">
         <v>50</v>
@@ -619,22 +619,22 @@
         <v>900</v>
       </c>
       <c r="D2" t="n">
-        <v>11250</v>
+        <v>8820</v>
       </c>
       <c r="E2" t="n">
         <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>2250</v>
+        <v>1764</v>
       </c>
       <c r="G2" t="n">
-        <v>78750.00000000001</v>
+        <v>61740</v>
       </c>
       <c r="H2" t="n">
-        <v>98437.50000000001</v>
+        <v>77175</v>
       </c>
       <c r="I2" t="n">
-        <v>109375</v>
+        <v>85750</v>
       </c>
       <c r="J2" t="n">
         <v>35</v>
@@ -732,22 +732,22 @@
         <v>900</v>
       </c>
       <c r="D2" t="n">
-        <v>11250</v>
+        <v>8820</v>
       </c>
       <c r="E2" t="n">
         <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>2250</v>
+        <v>1764</v>
       </c>
       <c r="G2" t="n">
-        <v>90000.00000000001</v>
+        <v>70560</v>
       </c>
       <c r="H2" t="n">
-        <v>112500</v>
+        <v>88200</v>
       </c>
       <c r="I2" t="n">
-        <v>125000</v>
+        <v>98000</v>
       </c>
       <c r="J2" t="n">
         <v>40</v>
@@ -845,22 +845,22 @@
         <v>900</v>
       </c>
       <c r="D2" t="n">
-        <v>11250</v>
+        <v>8820</v>
       </c>
       <c r="E2" t="n">
         <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>2250</v>
+        <v>1764</v>
       </c>
       <c r="G2" t="n">
-        <v>112500</v>
+        <v>88200</v>
       </c>
       <c r="H2" t="n">
-        <v>140625</v>
+        <v>110250</v>
       </c>
       <c r="I2" t="n">
-        <v>156250</v>
+        <v>122500</v>
       </c>
       <c r="J2" t="n">
         <v>50</v>
